--- a/action_en.xlsx
+++ b/action_en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chats\Sistema_CRUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5FD4C3-677D-4B74-B9BB-73FD75A3301B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E440AD-E3A6-4941-91BF-E55A31D35BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,27 +819,12 @@
     <t>have electricians check the motor rotation and correct the rotation as required</t>
   </si>
   <si>
-    <t>ensure that no foreign objects are causing a partial blockage on the inlet side of the fan. as fan blades turn past the obstruction, they will be unable to carry the full load and deflect</t>
-  </si>
-  <si>
     <t>determine the capacity of the bearing and follow the manufacturer's recommendations for lubrication</t>
   </si>
   <si>
-    <t>rotate the shaft, and let it roll until it comes to rest on its own to check for static unbalance. static unbalance can be corrected by hanging an appropriate weight opposite the resting, 6 o'clock position. engineers who have the proper instrumentation should do more complex balance correction</t>
-  </si>
-  <si>
     <t>when the fan is off, make sure the unit is turned off the resting point periodically to prevent the shaft from sagging due to its owm weight. check for undue stress on bearing mounts because of bad foundations and misaligned ductwork</t>
   </si>
   <si>
-    <t>depress the belts at midspan, and measure the deflection to test the belt tension. the deflection should be equal to 1/64' per inch of span between the centers of the driven and driver units</t>
-  </si>
-  <si>
-    <t>this can be caused by gross misalignment between the driver and the driven units. it can also be caused when one sheave is wider than the other one. to correct either one, align the belts to the center of the v in each sheave</t>
-  </si>
-  <si>
-    <t>plug the bore, and remachine it true. eccentric bores cause the sheaves to turn off center, causing the belts to tension and detension each revolution. this continual jerking back and forth causes the bearings to take a terrible pounding. keys and setscrews can have the same effect by drawing a sheave ofllcenter when the force is tightened</t>
-  </si>
-  <si>
     <t>prime the trap</t>
   </si>
   <si>
@@ -873,9 +858,6 @@
     <t>replace the worn orifice</t>
   </si>
   <si>
-    <t>readjust or replace the pressure-reducing valve. the valve may require a new diaphragm</t>
-  </si>
-  <si>
     <t>install the correct pressure change assembly</t>
   </si>
   <si>
@@ -945,15 +927,9 @@
     <t>check the connections, using the diagram supplied with the motor. if the wiring is connected improperly, have the electricians rewire it to the connection specified on the diagram</t>
   </si>
   <si>
-    <t>have an electrician check for loose wiring connections. verify that the starting switch inside the motor is closed. note: a humming sound when the switch is closed indicates an open circuit. repulsion induction motors may spark at the brushes</t>
-  </si>
-  <si>
     <t>stop the motor, and ensure that the motor and drive turn freely. check the bearings and lubrication. add some lubricant to the bearings, and rotate the shaft slowly by hand. if it still feels rough, have the motor repaired by the maintenance group</t>
   </si>
   <si>
-    <t>have maintenance rewind the motor. note: blown fuses indicate short-circuited stator</t>
-  </si>
-  <si>
     <t>remove the end bell, and locate the connection problem, using a test lamp. if a fault is found, have the electricians repair it</t>
   </si>
   <si>
@@ -1011,9 +987,6 @@
     <t>reverse connections at motor or switchboard</t>
   </si>
   <si>
-    <t>clean the blower or air shield. note: a continuous stream of air leaving the motor indicates good ventilation. if this does not happen after cleaning, check with the manufacturer for advice. if the wrong blower or air shield is being used, the manufacturer may have to recommend a design change</t>
-  </si>
-  <si>
     <t>ensure that all of the leads are well connected</t>
   </si>
   <si>
@@ -1122,9 +1095,6 @@
     <t>maintain correct amount of lubricant in bearing</t>
   </si>
   <si>
-    <t>reduce the quantity of lubricant. /note/ reservoir should not be more than half full</t>
-  </si>
-  <si>
     <t>remove the old grease, wash the bearing thoroughly with kerosene, and replace with new grease</t>
   </si>
   <si>
@@ -1155,9 +1125,6 @@
     <t>check the motor that has only a pedestal bearing with the other end connected to the coupling. /note/ the fan could be badly misaligned, which would affect the air gap between rotor and stator</t>
   </si>
   <si>
-    <t>perform a vibration analysis. /note/ this problem will require major work and may require a new rotor</t>
-  </si>
-  <si>
     <t>sand or turn down</t>
   </si>
   <si>
@@ -1305,48 +1272,24 @@
     <t>adjust the overtravel, replace the contacts, replace the contact springs, and set them to the correct contact force as necessary</t>
   </si>
   <si>
-    <t>clean and dress the contact faces in a dust-free environment. /caution/ do not use an emery cloth to clean and dress the contact faces. use glasspaper or a diamond file</t>
-  </si>
-  <si>
-    <t>replace with an air breaker contactor. /note/ an air breaker contactor may have 10 to 20 times longer contact life than an oil-immersed contactor of equal rating</t>
-  </si>
-  <si>
     <t>the breaker may be operating properly and clearing an overload. have an electrician check to see if the current is in excess of the thermal trip rating</t>
   </si>
   <si>
     <t>visually inspect the breaker for discoloration that would indicate loose connections. have electricians torque the connections to the correct setpoint</t>
   </si>
   <si>
-    <t>visually inspect the breaker for discoloration that would indicate loose connections. have the electricians check and correctly tighten the connections. /note/ machine vibrations can cause cables to loosen and can also cause cold flow when aluminum cables are used. cold flow refers to the contraction of the aluminum when the line is cooling down after the load is removed. this shrinkage can sometimes cause the connections to loosen</t>
-  </si>
-  <si>
-    <t>replace with the correct size wire. /note/ since the cable acts as a heat sink and carries heat away from the breaker, the proper wire size is important</t>
-  </si>
-  <si>
     <t>if the temperature fluctuates and frequently exceeds 140 °f, install an ambient compensating breaker</t>
   </si>
   <si>
-    <t>remove the trip unit from the base, and inspect it for discoloration. reinstall the trip unit, and torque it to the base in accordance with the designed settings that come with each unit. /note/ a bright cherry red color indicates a temperature of approximately 1,450 °f for the trip unit. if the unit has experienced thermal damage, then it must be replaced</t>
-  </si>
-  <si>
     <t>adjust the magnetic trip rating to the next higher setting or until the breaker does not trip when the motor is started</t>
   </si>
   <si>
-    <t>retest, using a six-cycle impulse test. /note/ a slow or gradual increase in current until the trip range is reached results in the breaker tripping at a lower value than that indicated on the trip unit. a six-cycle impulse test should be used. this is how the breakers are calibrated at the factory</t>
-  </si>
-  <si>
-    <t>close the open circuit. /note/ if an open circuit happens during transfer, the peak current during transfer could exceed 20 times the full-load amperes. /caution/ an extremely high magnetic trip setting can be supplied on the breaker, but the desired motor protection will be lost</t>
-  </si>
-  <si>
     <t>remove the breakers from high humidity locations since high humidity can cause dielectric and other problems associated with moisture. install heaters in the enclosure if the breakers cannot be removed from the humidity</t>
   </si>
   <si>
     <t>remove the breakers from corrosive environments if possible</t>
   </si>
   <si>
-    <t>remove the cover from the breaker, and determine what type of attachment is fitted. ensure that the attachment is functioning correctly. ensure that the proper voltage is applied to an undervoltage release so that the breaker will operate when shunt trips are used. /warning/ ensure that the shunt trip is not energized while the operator is trying to close the breaker</t>
-  </si>
-  <si>
     <t>adjust and secure the core clamps. if other problems exist, have a qualified electrician correct them</t>
   </si>
   <si>
@@ -1369,6 +1312,63 @@
   </si>
   <si>
     <t>during throttling operations, do not close the valve far enough to induce a high-pitched screaming noise</t>
+  </si>
+  <si>
+    <t>ensure that no foreign objects are causing a partial blockage on the inlet side of the fan. Note: as fan blades turn past the obstruction, they will be unable to carry the full load and deflect</t>
+  </si>
+  <si>
+    <t>rotate the shaft, and let it roll until it comes to rest on its own to check for static unbalance. Note: static unbalance can be corrected by hanging an appropriate weight opposite the resting, 6 o'clock position. engineers who have the proper instrumentation should do more complex balance correction</t>
+  </si>
+  <si>
+    <t>depress the belts at midspan, and measure the deflection to test the belt tension. Note: the deflection should be equal to 1/64' per inch of span between the centers of the driven and driver units</t>
+  </si>
+  <si>
+    <t>Note: this can be caused by gross misalignment between the driver and the driven units. it can also be caused when one sheave is wider than the other one. to correct either one, align the belts to the center of the v in each sheave</t>
+  </si>
+  <si>
+    <t>plug the bore, and remachine it true. Note: eccentric bores cause the sheaves to turn off center, causing the belts to tension and detension each revolution. this continual jerking back and forth causes the bearings to take a terrible pounding. keys and setscrews can have the same effect by drawing a sheave ofllcenter when the force is tightened</t>
+  </si>
+  <si>
+    <t>readjust or replace the pressure-reducing valve. Note: the valve may require a new diaphragm</t>
+  </si>
+  <si>
+    <t>have an electrician check for loose wiring connections. verify that the starting switch inside the motor is closed. Note: a humming sound when the switch is closed indicates an open circuit. repulsion induction motors may spark at the brushes</t>
+  </si>
+  <si>
+    <t>have maintenance rewind the motor. Note: blown fuses indicate short-circuited stator</t>
+  </si>
+  <si>
+    <t>clean the blower or air shield. Note: a continuous stream of air leaving the motor indicates good ventilation. if this does not happen after cleaning, check with the manufacturer for advice. if the wrong blower or air shield is being used, the manufacturer may have to recommend a design change</t>
+  </si>
+  <si>
+    <t>reduce the quantity of lubricant. note: reservoir should not be more than half full</t>
+  </si>
+  <si>
+    <t>perform a vibration analysis. note: this problem will require major work and may require a new rotor</t>
+  </si>
+  <si>
+    <t>clean and dress the contact faces in a dust-free environment. Caution: do not use an emery cloth to clean and dress the contact faces. use glasspaper or a diamond file</t>
+  </si>
+  <si>
+    <t>replace with an air breaker contactor. Note: an air breaker contactor may have 10 to 20 times longer contact life than an oil-immersed contactor of equal rating</t>
+  </si>
+  <si>
+    <t>visually inspect the breaker for discoloration that would indicate loose connections. have the electricians check and correctly tighten the connections. note: machine vibrations can cause cables to loosen and can also cause cold flow when aluminum cables are used. cold flow refers to the contraction of the aluminum when the line is cooling down after the load is removed. this shrinkage can sometimes cause the connections to loosen</t>
+  </si>
+  <si>
+    <t>replace with the correct size wire. note: since the cable acts as a heat sink and carries heat away from the breaker, the proper wire size is important</t>
+  </si>
+  <si>
+    <t>remove the trip unit from the base, and inspect it for discoloration. reinstall the trip unit, and torque it to the base in accordance with the designed settings that come with each unit. note: a bright cherry red color indicates a temperature of approximately 1,450 °f for the trip unit. if the unit has experienced thermal damage, then it must be replaced</t>
+  </si>
+  <si>
+    <t>retest, using a six-cycle impulse test. note: a slow or gradual increase in current until the trip range is reached results in the breaker tripping at a lower value than that indicated on the trip unit. a six-cycle impulse test should be used. this is how the breakers are calibrated at the factory</t>
+  </si>
+  <si>
+    <t>close the open circuit. note: if an open circuit happens during transfer, the peak current during transfer could exceed 20 times the full-load amperes. caution: an extremely high magnetic trip setting can be supplied on the breaker, but the desired motor protection will be lost</t>
+  </si>
+  <si>
+    <t>remove the cover from the breaker, and determine what type of attachment is fitted. ensure that the attachment is functioning correctly. ensure that the proper voltage is applied to an undervoltage release so that the breaker will operate when shunt trips are used. warning: ensure that the shunt trip is not energized while the operator is trying to close the breaker</t>
   </si>
 </sst>
 </file>
@@ -1739,8 +1739,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:B449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="B263" sqref="B263:B265"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="B444" sqref="B444:B449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2531,7 +2531,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3867,7 +3867,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>262</v>
+        <v>427</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3875,7 +3875,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3883,7 +3883,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>264</v>
+        <v>428</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -3891,7 +3891,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3899,7 +3899,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>266</v>
+        <v>429</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3907,7 +3907,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>267</v>
+        <v>430</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3915,7 +3915,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>268</v>
+        <v>431</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3923,7 +3923,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3931,7 +3931,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -3947,7 +3947,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -3955,7 +3955,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -3963,7 +3963,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -3971,7 +3971,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -3979,7 +3979,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -3987,7 +3987,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -3995,7 +3995,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4003,7 +4003,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -4011,7 +4011,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>280</v>
+        <v>432</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4019,7 +4019,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -4027,7 +4027,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4035,7 +4035,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4043,7 +4043,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4051,7 +4051,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4059,7 +4059,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4067,7 +4067,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4075,7 +4075,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -4083,7 +4083,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4091,7 +4091,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4099,7 +4099,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4107,7 +4107,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4115,7 +4115,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4123,7 +4123,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4139,7 +4139,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4147,7 +4147,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4155,7 +4155,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4163,7 +4163,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4171,7 +4171,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4179,7 +4179,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4187,7 +4187,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4195,7 +4195,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4203,7 +4203,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>304</v>
+        <v>433</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4211,7 +4211,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4219,7 +4219,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>306</v>
+        <v>434</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4227,7 +4227,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4235,7 +4235,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4243,7 +4243,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4251,7 +4251,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4259,7 +4259,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4267,7 +4267,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4275,7 +4275,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4283,7 +4283,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4291,7 +4291,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4299,7 +4299,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4307,7 +4307,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4315,7 +4315,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4323,7 +4323,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4331,7 +4331,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4339,7 +4339,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4347,7 +4347,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4355,7 +4355,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4363,7 +4363,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4371,7 +4371,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4379,7 +4379,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>326</v>
+        <v>435</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4387,7 +4387,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4395,7 +4395,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4403,7 +4403,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4411,7 +4411,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4419,7 +4419,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4427,7 +4427,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4435,7 +4435,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4443,7 +4443,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4451,7 +4451,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -4459,7 +4459,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -4467,7 +4467,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -4475,7 +4475,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -4483,7 +4483,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -4491,7 +4491,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -4499,7 +4499,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -4507,7 +4507,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -4515,7 +4515,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -4523,7 +4523,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4531,7 +4531,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -4539,7 +4539,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4547,7 +4547,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4555,7 +4555,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4563,7 +4563,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -4571,7 +4571,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4579,7 +4579,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4587,7 +4587,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -4595,7 +4595,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4603,7 +4603,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -4611,7 +4611,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -4619,7 +4619,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -4627,7 +4627,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -4635,7 +4635,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -4643,7 +4643,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4651,7 +4651,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -4659,7 +4659,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -4667,7 +4667,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -4675,7 +4675,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>363</v>
+        <v>436</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -4683,7 +4683,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -4691,7 +4691,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -4699,7 +4699,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -4707,7 +4707,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -4715,7 +4715,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -4723,7 +4723,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -4731,7 +4731,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4739,7 +4739,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4747,7 +4747,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -4760,7 +4760,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -4768,7 +4768,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -4776,7 +4776,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -4784,7 +4784,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -4792,7 +4792,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -4800,7 +4800,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -4808,7 +4808,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4816,7 +4816,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -4824,7 +4824,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -4832,7 +4832,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -4840,7 +4840,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -4848,7 +4848,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -4856,7 +4856,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -4864,7 +4864,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -4872,7 +4872,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -4880,7 +4880,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -4888,7 +4888,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -4896,7 +4896,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -4904,7 +4904,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -4912,7 +4912,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -4920,7 +4920,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -4928,7 +4928,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -4944,7 +4944,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -4952,7 +4952,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -4960,7 +4960,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -4968,7 +4968,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -4976,7 +4976,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -4984,7 +4984,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -4992,7 +4992,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5000,7 +5000,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5008,7 +5008,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -5016,7 +5016,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -5024,7 +5024,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5032,7 +5032,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -5040,7 +5040,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -5048,7 +5048,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -5056,7 +5056,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -5064,7 +5064,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -5072,7 +5072,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -5080,7 +5080,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -5088,7 +5088,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -5096,7 +5096,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -5104,7 +5104,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -5112,7 +5112,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -5120,7 +5120,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -5128,7 +5128,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -5136,7 +5136,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -5144,7 +5144,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -5152,7 +5152,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -5160,7 +5160,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -5168,7 +5168,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -5176,7 +5176,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -5184,7 +5184,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -5192,7 +5192,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -5200,7 +5200,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -5216,7 +5216,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -5224,7 +5224,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -5240,7 +5240,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -5248,7 +5248,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -5256,7 +5256,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -5264,7 +5264,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -5272,7 +5272,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -5280,7 +5280,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -5288,7 +5288,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -5296,7 +5296,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -5304,7 +5304,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -5312,7 +5312,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -5320,7 +5320,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -5328,7 +5328,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
